--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,61 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I12" s="3">
         <v>29600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>9900</v>
       </c>
-      <c r="H12" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +988,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F17" s="3">
         <v>18000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>30800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I17" s="3">
         <v>39800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
-        <v>19500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-30800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-39800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,28 +1084,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
         <v>14600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-58500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,39 +1119,45 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-28300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-24000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-71100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1095,66 +1174,84 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-25200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-71200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>-31500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>-96300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-31500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-23800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-71200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-106800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-216700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-70400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1504,69 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>58500</v>
       </c>
-      <c r="H32" s="3">
-        <v>900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-106800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-216700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-70400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-106800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-216700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-70400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F41" s="3">
         <v>37800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>37900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,23 +1734,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F42" s="3">
         <v>73100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>88900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1769,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>259600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>94500</v>
+      </c>
+      <c r="F46" s="3">
         <v>114800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>129400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1944,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F48" s="3">
         <v>38000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>36800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2084,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F52" s="3">
         <v>17800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>14400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>322600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>156100</v>
+      </c>
+      <c r="F54" s="3">
         <v>170600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>180500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,22 +2223,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
-        <v>18900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>4000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1993,22 +2254,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>7300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,22 +2289,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F59" s="3">
         <v>15300</v>
       </c>
-      <c r="E59" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>56200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2324,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F60" s="3">
         <v>19900</v>
       </c>
-      <c r="E60" s="3">
-        <v>36400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>52200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2080,22 +2359,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
-        <v>500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2109,20 +2394,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F62" s="3">
         <v>21100</v>
       </c>
-      <c r="E62" s="3">
-        <v>354000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,22 +2534,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F66" s="3">
         <v>43800</v>
       </c>
-      <c r="E66" s="3">
-        <v>40800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>36900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,22 +2654,28 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>302000</v>
+      </c>
+      <c r="F70" s="3">
         <v>298800</v>
       </c>
-      <c r="E70" s="3">
-        <v>295600</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>439200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,22 +2724,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-233500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-175200</v>
       </c>
-      <c r="E72" s="3">
-        <v>24400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>-156200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,22 +2864,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>261400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-201100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-172100</v>
       </c>
-      <c r="E76" s="3">
-        <v>-152000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>-295500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-106800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-216700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-70400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-37200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I91" s="3">
         <v>1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-121100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>37900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I94" s="3">
         <v>98700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>37900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I100" s="3">
         <v>120100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>9900</v>
       </c>
-      <c r="H100" s="3">
-        <v>49800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-96800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I102" s="3">
         <v>105900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>40600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,65 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +757,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E12" s="3">
         <v>21500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,43 +1016,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E17" s="3">
         <v>28400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,34 +1064,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1108,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,34 +1118,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-58500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,48 +1156,51 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-26700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-71100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1180,43 +1220,49 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-71200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1229,18 +1275,18 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <v>-31500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>-96300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-71200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-106800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-216700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1562,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,69 +1574,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>58500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-106800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-216700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-106800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-216700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E41" s="3">
         <v>126100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,26 +1827,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E42" s="3">
         <v>127400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>73100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,8 +1865,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1941,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E46" s="3">
         <v>259600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>94500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>114800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>129400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2055,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E48" s="3">
         <v>46900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>38000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E52" s="3">
         <v>16100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E54" s="3">
         <v>322600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>156100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>170600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>180500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2269,17 +2403,17 @@
         <v>1700</v>
       </c>
       <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,26 +2429,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E59" s="3">
         <v>23700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2505,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,23 +2543,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E62" s="3">
         <v>24500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E66" s="3">
         <v>61200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,17 +2837,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>302000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>298800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>439200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-233500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-203000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-175200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-156200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E76" s="3">
         <v>261400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-201100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-172100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-295500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-106800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-216700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,34 +3238,37 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-17000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-37200</v>
+        <v>-45300</v>
       </c>
       <c r="H89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-25900</v>
       </c>
-      <c r="I89" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
-        <v>1600</v>
-      </c>
       <c r="J91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-121100</v>
-      </c>
       <c r="G94" s="3">
-        <v>37900</v>
+        <v>-83200</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
-        <v>98700</v>
-      </c>
       <c r="J94" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +3828,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>193000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>37900</v>
       </c>
       <c r="H100" s="3">
         <v>37900</v>
       </c>
       <c r="I100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J100" s="3">
         <v>120100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>88800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-96800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>105900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E12" s="3">
         <v>19400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,46 +1043,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E17" s="3">
         <v>26300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,37 +1094,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,37 +1152,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-58500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,37 +1193,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-29400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-71100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,14 +1236,14 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1223,46 +1263,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-71200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1278,18 +1324,18 @@
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>-31500</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-96300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-71200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I27" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-216700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,75 +1644,81 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>58500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I33" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-216700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I35" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-216700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E41" s="3">
         <v>125300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,29 +1917,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E42" s="3">
         <v>102600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>127400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>73100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E46" s="3">
         <v>234800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>259600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>129400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E48" s="3">
         <v>48600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>38000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>16600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E54" s="3">
         <v>300000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>322600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>156100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>170600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>180500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,17 +2540,17 @@
         <v>1700</v>
       </c>
       <c r="F58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E59" s="3">
         <v>31100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E60" s="3">
         <v>39000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E62" s="3">
         <v>25300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E66" s="3">
         <v>69200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>36900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2840,17 +3008,17 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>302000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>298800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>439200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-302200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-233500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-203000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-156200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E76" s="3">
         <v>230800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>261400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-201100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-172100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-295500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-106800</v>
-      </c>
       <c r="I81" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-216700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>1100</v>
       </c>
       <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E94" s="3">
         <v>22900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>193000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>37900</v>
       </c>
       <c r="I100" s="3">
         <v>37900</v>
       </c>
       <c r="J100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K100" s="3">
         <v>120100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>88800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-96800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>105900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,72 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +878,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E12" s="3">
         <v>29800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12500</v>
       </c>
-      <c r="I12" s="3">
-        <v>21900</v>
-      </c>
       <c r="J12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1069,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E17" s="3">
         <v>37300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18000</v>
       </c>
-      <c r="I17" s="3">
-        <v>30800</v>
-      </c>
       <c r="J17" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1123,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-30800</v>
-      </c>
       <c r="J18" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-39800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,40 +1185,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
-        <v>-700</v>
-      </c>
       <c r="J20" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-58500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,40 +1229,43 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-33100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19600</v>
       </c>
-      <c r="I21" s="3">
-        <v>-28300</v>
-      </c>
       <c r="J21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-71100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,14 +1278,14 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1266,49 +1305,55 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19000</v>
       </c>
-      <c r="I23" s="3">
-        <v>-31500</v>
-      </c>
       <c r="J23" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-71200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1327,18 +1372,18 @@
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>-31500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-96300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19000</v>
       </c>
-      <c r="I26" s="3">
-        <v>-31500</v>
-      </c>
       <c r="J26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-69100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-216700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,81 +1713,87 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
-        <v>700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>58500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-69100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-16600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-216700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-69100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-16600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-216700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E41" s="3">
         <v>137900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,32 +2006,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E42" s="3">
         <v>64300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>127400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,8 +2050,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>6500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>308300</v>
+      </c>
+      <c r="E46" s="3">
         <v>208700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>234800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>259600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>94500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>114800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>129400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,32 +2270,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E48" s="3">
         <v>51200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2446,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2534,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>451700</v>
+      </c>
+      <c r="E54" s="3">
         <v>278300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>322600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>156100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>170600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>180500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,13 +2658,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
         <v>1700</v>
@@ -2543,17 +2676,17 @@
         <v>1700</v>
       </c>
       <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,32 +2702,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E59" s="3">
         <v>39100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2746,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E60" s="3">
         <v>47500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,32 +2790,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E62" s="3">
         <v>26300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3010,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206100</v>
+      </c>
+      <c r="E66" s="3">
         <v>78200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>36900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,17 +3178,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>302000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>298800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>439200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3248,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-397600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-302200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-267700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-233500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-203000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-175200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-156200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3424,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>245600</v>
+      </c>
+      <c r="E76" s="3">
         <v>200100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>230800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>261400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-201100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-172100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-295500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-69100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-16600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-216700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3625,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>1100</v>
       </c>
       <c r="G83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
-        <v>1600</v>
-      </c>
       <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3887,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-8900</v>
-      </c>
       <c r="J89" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-25900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3951,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-8900</v>
-      </c>
       <c r="J91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4081,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="E94" s="3">
         <v>35200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-76800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4319,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>193000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>37900</v>
       </c>
-      <c r="J100" s="3">
-        <v>37900</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4407,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>14100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>88800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-96800</v>
-      </c>
       <c r="J102" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>105900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,76 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +892,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E12" s="3">
         <v>32500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,52 +1096,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200400</v>
+      </c>
+      <c r="E17" s="3">
         <v>40800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,43 +1153,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-37300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-48400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-39800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,43 +1219,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-58500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,43 +1266,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-33200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-71100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,14 +1321,14 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1308,52 +1348,58 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-95500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-71200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1375,18 +1421,18 @@
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-31500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>-96300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1489,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-95500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-216700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-70400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,87 +1783,93 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>58500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-95500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-216700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-70400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1912,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-95500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-216700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-70400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2051,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E41" s="3">
         <v>162200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>137900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,35 +2096,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>406200</v>
+      </c>
+      <c r="E42" s="3">
         <v>137500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>64300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>102600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>127400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>73100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>88900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,35 +2237,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,35 +2284,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>514600</v>
+      </c>
+      <c r="E46" s="3">
         <v>308300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>208700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>234800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>259600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>94500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>114800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>129400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,35 +2378,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E48" s="3">
         <v>125400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>51200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,35 +2566,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E52" s="3">
         <v>18000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2660,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>693200</v>
+      </c>
+      <c r="E54" s="3">
         <v>451700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>322600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>156100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>170600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>180500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,35 +2747,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2670,7 +2804,7 @@
         <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="F58" s="3">
         <v>1700</v>
@@ -2679,17 +2813,17 @@
         <v>1700</v>
       </c>
       <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,35 +2839,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E59" s="3">
         <v>93900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +2886,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E60" s="3">
         <v>102300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,35 +2933,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2837,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E62" s="3">
         <v>98500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3168,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>270800</v>
+      </c>
+      <c r="E66" s="3">
         <v>206100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>61200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>36900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,17 +3349,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>302000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>298800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>439200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3422,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-599200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-397600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-302200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-267700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-233500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-203000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-175200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-156200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3610,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>422400</v>
+      </c>
+      <c r="E76" s="3">
         <v>245600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>230800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>261400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-201100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-172100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-295500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3704,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-95500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-216700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-70400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,52 +3824,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
       </c>
       <c r="H83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I83" s="3">
         <v>1000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>900</v>
       </c>
       <c r="J83" s="3">
         <v>900</v>
       </c>
       <c r="K83" s="3">
+        <v>900</v>
+      </c>
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4104,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17800</v>
       </c>
-      <c r="I89" s="3">
-        <v>-45300</v>
-      </c>
       <c r="J89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K89" s="3">
         <v>16900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4172,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4311,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-279600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-81400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>35200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-76800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-83200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,52 +4565,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>253300</v>
+      </c>
+      <c r="E100" s="3">
         <v>130000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>193000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>37900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,48 +4659,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="E102" s="3">
         <v>24300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>88800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-106500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>105900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +784,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E12" s="3">
         <v>190100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,55 +1123,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E17" s="3">
         <v>200400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,46 +1183,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-48400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,46 +1253,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-54700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-58500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,46 +1303,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-200200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-94200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-33100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-71100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1324,14 +1364,14 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>100</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1351,55 +1391,61 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-201600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-95500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-71200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1424,18 +1470,18 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>-31500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>-96300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-201600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-95500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-71200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-201600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-95500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-216700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,93 +1853,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>54700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>58500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-201600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-95500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-216700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-201600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-95500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-216700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E41" s="3">
         <v>97200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>162200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,38 +2186,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>403300</v>
+      </c>
+      <c r="E42" s="3">
         <v>406200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>137500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>64300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>102600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>127400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>54600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>73100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,31 +2236,34 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E46" s="3">
         <v>514600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>308300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>208700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>259600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>94500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>114800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>129400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,31 +2436,34 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>29400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E48" s="3">
         <v>158800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>125400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>51200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>48600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>19900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>893100</v>
+      </c>
+      <c r="E54" s="3">
         <v>693200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>451700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>322600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>156100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>170600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>180500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,8 +2878,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2757,29 +2888,29 @@
         <v>8000</v>
       </c>
       <c r="E57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,19 +2926,22 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
         <v>2100</v>
       </c>
       <c r="F58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="G58" s="3">
         <v>1700</v>
@@ -2816,17 +2950,17 @@
         <v>1700</v>
       </c>
       <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E59" s="3">
         <v>92000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E60" s="3">
         <v>102100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,38 +3076,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E62" s="3">
         <v>164000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E66" s="3">
         <v>270800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,17 +3520,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>302000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>298800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>439200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-675400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-599200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-397600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-302200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-233500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-203000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-175200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-156200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>548600</v>
+      </c>
+      <c r="E76" s="3">
         <v>422400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>245600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>230800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>261400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-201100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-172100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-295500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-201600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-95500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-216700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,55 +4023,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>900</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
       </c>
       <c r="L83" s="3">
+        <v>900</v>
+      </c>
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-279600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-81400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>35200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-76800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-83200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,55 +4811,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E100" s="3">
         <v>253300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>130000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>193000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>37900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>120100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-64900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>88800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-106500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>105900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>800</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E12" s="3">
         <v>45600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>190100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E17" s="3">
         <v>59000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-69600</v>
       </c>
       <c r="E18" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-48400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-39800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>41500</v>
       </c>
       <c r="E20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-54700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-58500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-26400</v>
       </c>
       <c r="E21" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-94200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-33200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-33100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-71100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1367,14 +1407,14 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>100</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1394,58 +1434,64 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-76300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-201600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-95500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-71200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1473,18 +1519,18 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>-31500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>-96300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-76300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-201600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-95500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-76300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-201600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-95500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-52600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-216700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-41500</v>
       </c>
       <c r="E32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>54700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>58500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-76300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-201600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-95500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-216700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-76300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-201600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-95500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-216700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E41" s="3">
         <v>212000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>162200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>137900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>126100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,41 +2276,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>321400</v>
+      </c>
+      <c r="E42" s="3">
         <v>403300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>406200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>137500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>64300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>127400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>54600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>73100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,17 +2329,20 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>50000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2358,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>941400</v>
+      </c>
+      <c r="E46" s="3">
         <v>678000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>514600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>308300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>208700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>259600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>94500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>114800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>129400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,17 +2541,20 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E47" s="3">
         <v>29400</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,8 +2570,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E48" s="3">
         <v>169700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>158800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>125400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>51200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1156600</v>
+      </c>
+      <c r="E54" s="3">
         <v>893100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>693200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>451700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>322600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>156100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>170600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>180500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="E57" s="3">
         <v>8000</v>
       </c>
       <c r="F57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2938,13 +3072,13 @@
         <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>2100</v>
       </c>
       <c r="G58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
@@ -2953,17 +3087,17 @@
         <v>1700</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E59" s="3">
         <v>118500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>92000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E60" s="3">
         <v>128700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>102300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,41 +3219,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E61" s="3">
         <v>4200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E62" s="3">
         <v>211600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>164000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>302700</v>
+      </c>
+      <c r="E66" s="3">
         <v>344500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>270800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,17 +3691,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>302000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>298800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>439200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-703600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-675400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-599200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-397600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-302200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-233500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-203000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-175200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-156200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>853800</v>
+      </c>
+      <c r="E76" s="3">
         <v>548600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>422400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>245600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>230800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>261400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-201100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-172100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-295500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-76300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-201600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-95500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-216700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
       </c>
       <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>900</v>
       </c>
       <c r="L83" s="3">
         <v>900</v>
       </c>
       <c r="M83" s="3">
+        <v>900</v>
+      </c>
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-279600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-81400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>35200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>22900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-76800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E100" s="3">
         <v>160400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>253300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>130000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>193000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>37900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>120100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E102" s="3">
         <v>114800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-64900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>88800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-106500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>105900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -794,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +933,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E12" s="3">
         <v>54600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>190100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E17" s="3">
         <v>70400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-69600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-59000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-40800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-48400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-39800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1310,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>41500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-54700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>30600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-58500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-74600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-94200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-33200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-33100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1410,14 +1449,14 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1437,61 +1476,67 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-76300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-201600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-95500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,18 +1567,18 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>-31500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
         <v>-96300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-76300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-201600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-95500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-76300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-201600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-95500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-52600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-216700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-41500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>54700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-30600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>58500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-76300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-201600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-95500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-216700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-76300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-201600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-95500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-216700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E41" s="3">
         <v>612000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>212000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>162200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>137900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,44 +2365,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>405700</v>
+      </c>
+      <c r="E42" s="3">
         <v>321400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>403300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>406200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>137500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>64300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>127400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>73100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,20 +2421,23 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>50000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2453,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2385,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,44 +2533,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2589,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1273000</v>
+      </c>
+      <c r="E46" s="3">
         <v>941400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>678000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>514600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>308300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>208700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>234800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>259600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>94500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>114800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>129400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,20 +2645,23 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>24500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2677,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2597,44 +2701,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E48" s="3">
         <v>174700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>169700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>158800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>125400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>51200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,44 +2925,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E52" s="3">
         <v>15900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1474500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1156600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>893100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>693200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>451700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>322600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>156100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>170600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>180500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>8000</v>
       </c>
       <c r="F57" s="3">
         <v>8000</v>
       </c>
       <c r="G57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,25 +3193,28 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
         <v>2200</v>
       </c>
       <c r="F58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G58" s="3">
         <v>2100</v>
       </c>
       <c r="H58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>1700</v>
@@ -3090,17 +3223,17 @@
         <v>1700</v>
       </c>
       <c r="K58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,44 +3249,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E59" s="3">
         <v>91900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>118500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>92000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,44 +3305,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E60" s="3">
         <v>101400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>128700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>102100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,44 +3361,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>431300</v>
+      </c>
+      <c r="E62" s="3">
         <v>197800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>211600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>164000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>647700</v>
+      </c>
+      <c r="E66" s="3">
         <v>302700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>344500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>270800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,17 +3861,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>302000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>298800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>439200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-768300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-703600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-675400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-599200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-397600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-302200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-233500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-203000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-175200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-156200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>826700</v>
+      </c>
+      <c r="E76" s="3">
         <v>853800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>548600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>422400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>245600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>230800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>261400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-201100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-172100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-295500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-76300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-201600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-95500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-216700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>1100</v>
       </c>
       <c r="K83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
       </c>
       <c r="N83" s="3">
+        <v>900</v>
+      </c>
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E94" s="3">
         <v>76100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-279600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-81400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>35200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>22900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-76800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>22000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5302,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E100" s="3">
         <v>320900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>160400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>253300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>130000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>193000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>37900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>120100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5414,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>114800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-64900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>88800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-106500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>105900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E8" s="3">
         <v>51100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -800,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E12" s="3">
         <v>96800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>190100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E17" s="3">
         <v>114600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-69600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-59000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-48400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,120 +1344,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>41500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-54700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-58500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-62100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-74600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-94200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-33200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-33100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-71100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1452,14 +1492,14 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>100</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1479,64 +1519,70 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-76300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-201600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-95500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-71200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1570,18 +1616,18 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>-31500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-64700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-76300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-201600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-95500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-71200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-64700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-76300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-201600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-95500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-216700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-70400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-41500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>54700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>58500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-64700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-76300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-201600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-95500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-216700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-70400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-64700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-76300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-201600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-95500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-216700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-70400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>296800</v>
+      </c>
+      <c r="E41" s="3">
         <v>560000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>612000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>212000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>162200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>137900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>125300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,47 +2455,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>925800</v>
+      </c>
+      <c r="E42" s="3">
         <v>405700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>321400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>403300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>406200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>137500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>64300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>102600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>127400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>73100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,23 +2514,26 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>50000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2549,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,47 +2691,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1239500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1273000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>941400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>678000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>514600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>308300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>208700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>234800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>259600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>114800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>129400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,23 +2750,26 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>24500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,8 +2785,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2704,47 +2809,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>199800</v>
+      </c>
+      <c r="E48" s="3">
         <v>187000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>174700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>169700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>158800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>125400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1453400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1474500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1156600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>893100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>693200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>451700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>322600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>156100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>170600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>180500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8000</v>
       </c>
       <c r="G57" s="3">
         <v>8000</v>
       </c>
       <c r="H57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3205,19 +3339,19 @@
         <v>2300</v>
       </c>
       <c r="E58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2200</v>
       </c>
       <c r="G58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H58" s="3">
         <v>2100</v>
       </c>
       <c r="I58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="J58" s="3">
         <v>1700</v>
@@ -3226,17 +3360,17 @@
         <v>1700</v>
       </c>
       <c r="L58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,47 +3386,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E59" s="3">
         <v>203700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>118500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>92000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,47 +3445,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E60" s="3">
         <v>213400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>128700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,47 +3504,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3420,44 +3563,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>403100</v>
+      </c>
+      <c r="E62" s="3">
         <v>431300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>197800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>211600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>164000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>98500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>624300</v>
+      </c>
+      <c r="E66" s="3">
         <v>647700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>302700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>344500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>270800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3864,17 +4032,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>302000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>298800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>439200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-837500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-768300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-703600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-675400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-599200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-397600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-302200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-267700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-233500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-203000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-175200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-156200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>829100</v>
+      </c>
+      <c r="E76" s="3">
         <v>826700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>853800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>548600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>422400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>245600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>230800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>261400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-201100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-172100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-295500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-64700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-76300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-201600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-95500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-216700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-70400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1100</v>
       </c>
       <c r="K83" s="3">
         <v>1100</v>
       </c>
       <c r="L83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M83" s="3">
         <v>1000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>900</v>
       </c>
       <c r="N83" s="3">
         <v>900</v>
       </c>
       <c r="O83" s="3">
+        <v>900</v>
+      </c>
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-537300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-77500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>76100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-279600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-81400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>35200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>22000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E100" s="3">
         <v>21500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>320900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>160400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>253300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>130000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>193000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>37900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>120100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-54100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>114800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-64900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-106500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>105900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -807,8 +811,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E12" s="3">
         <v>65400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>96800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>190100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>29600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E17" s="3">
         <v>84700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-76300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-69600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-59000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-48400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,126 +1378,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>41500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-54700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-58500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-65900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-62100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-74600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-94200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-33200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-33100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-71100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1495,14 +1535,14 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>100</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1522,67 +1562,73 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-69200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-64700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-76300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-201600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-95500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-71200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1619,18 +1665,18 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
         <v>-31500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
         <v>-96300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-76300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-201600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-95500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-71200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-69200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-64700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-76300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-201600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-95500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-52600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-216700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-70400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-41500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>54700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>58500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-69200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-64700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-76300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-201600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-95500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-216700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-70400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-69200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-64700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-76300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-201600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-95500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-216700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-70400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E41" s="3">
         <v>296800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>560000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>612000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>212000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>162200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>137900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,50 +2545,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900500</v>
+      </c>
+      <c r="E42" s="3">
         <v>925800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>405700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>321400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>403300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>406200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>137500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>64300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>127400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>73100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +2607,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2526,17 +2619,17 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>50000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2552,8 +2645,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2793,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1179900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1239500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1273000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>941400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>678000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>514600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>308300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>208700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>259600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>114800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>129400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,15 +2869,15 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>24500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,8 +2893,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2812,50 +2917,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E48" s="3">
         <v>199800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>174700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>169700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>158800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>125400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +2979,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1418400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1453400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1474500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1156600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>893100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>693200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>451700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>322600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>170600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>180500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8000</v>
       </c>
       <c r="H57" s="3">
         <v>8000</v>
       </c>
       <c r="I57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,31 +3461,34 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
       </c>
       <c r="F58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2200</v>
       </c>
       <c r="H58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I58" s="3">
         <v>2100</v>
       </c>
       <c r="J58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>1700</v>
@@ -3363,17 +3497,17 @@
         <v>1700</v>
       </c>
       <c r="M58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E59" s="3">
         <v>210200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>91900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>118500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>92000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3585,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E60" s="3">
         <v>218800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>213400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>102300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,50 +3647,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3566,47 +3709,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>404100</v>
+      </c>
+      <c r="E62" s="3">
         <v>403100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>431300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>197800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>211600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>164000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>98500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>618200</v>
+      </c>
+      <c r="E66" s="3">
         <v>624300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>647700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>302700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>344500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>270800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>206100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4035,17 +4203,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>302000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>298800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>439200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-909400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-837500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-768300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-703600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-675400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-599200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-397600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-302200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-267700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-233500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-203000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-175200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-156200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800200</v>
+      </c>
+      <c r="E76" s="3">
         <v>829100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>826700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>853800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>548600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>422400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>245600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>230800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>261400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-201100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-172100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-295500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-69200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-64700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-76300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-201600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-95500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-216700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-70400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
       </c>
       <c r="M83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N83" s="3">
         <v>1000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>900</v>
       </c>
       <c r="O83" s="3">
         <v>900</v>
       </c>
       <c r="P83" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E89" s="3">
         <v>218500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-537300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>76100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-279600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-81400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>16600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-83200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>22000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2200</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E100" s="3">
         <v>55700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>320900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>160400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>253300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>130000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>193000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>37900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>120100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-263200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-54100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>114800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-64900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>88800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-106500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>105900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E8" s="3">
         <v>16700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -814,8 +818,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +883,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E12" s="3">
         <v>74600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>96800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>54600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>45600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>190100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>32500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>29600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E17" s="3">
         <v>98600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>114600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>48400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-81900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-76300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-69600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-59000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-39800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,132 +1412,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>41500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-54700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-58500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-68500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-65900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-74600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-94200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-33200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-24000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-71100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1538,14 +1578,14 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>100</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1565,75 +1605,81 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-72000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-69200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-64700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-76300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-201600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-95500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-71200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>2400</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1668,18 +1714,18 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
         <v>-96300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-72000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-76300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-201600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-95500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-71200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-69200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-76300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-201600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-95500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-216700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-70400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-41500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>54700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>58500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-72000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-69200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-76300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-201600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-95500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-216700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-70400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-72000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-69200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-76300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-201600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-95500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-216700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-70400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,53 +2572,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E41" s="3">
         <v>265600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>296800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>560000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>612000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>212000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>162200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,53 +2635,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>938000</v>
+      </c>
+      <c r="E42" s="3">
         <v>900500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>925800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>405700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>321400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>403300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>406200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>137500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>64300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>102600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>127400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>73100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>88900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,8 +2700,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2622,17 +2715,17 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>50000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2741,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,53 +2830,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E45" s="3">
         <v>13800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,53 +2895,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1179900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1239500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1273000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>941400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>678000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>514600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>308300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>208700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>259600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>114800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>129400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2872,15 +2977,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>24500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3001,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2920,53 +3025,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E48" s="3">
         <v>223500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>199800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>187000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>174700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>169700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>158800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>125400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3090,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,53 +3285,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,53 +3415,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1350300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1418400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1453400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1474500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1156600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>893100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>693200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>451700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>278300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>322600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>180500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,53 +3532,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8000</v>
       </c>
       <c r="I57" s="3">
         <v>8000</v>
       </c>
       <c r="J57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,34 +3595,37 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
       </c>
       <c r="G58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>2200</v>
       </c>
       <c r="I58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J58" s="3">
         <v>2100</v>
       </c>
       <c r="K58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="L58" s="3">
         <v>1700</v>
@@ -3500,17 +3634,17 @@
         <v>1700</v>
       </c>
       <c r="N58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,53 +3660,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E59" s="3">
         <v>202800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>210200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>118500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>92000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>93900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,53 +3725,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>238900</v>
+      </c>
+      <c r="E60" s="3">
         <v>212300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>218800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>213400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>102100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,53 +3790,56 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3712,50 +3855,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>395500</v>
+      </c>
+      <c r="E62" s="3">
         <v>404100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>403100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>431300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>197800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>211600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>164000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>98500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,53 +4115,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>635800</v>
+      </c>
+      <c r="E66" s="3">
         <v>618200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>624300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>647700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>302700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>344500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>270800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>206100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4206,17 +4374,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>302000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>298800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>439200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,53 +4465,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1019000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-909400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-837500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-768300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-703600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-675400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-599200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-397600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-302200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-267700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-233500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-203000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-175200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-156200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,53 +4725,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>714500</v>
+      </c>
+      <c r="E76" s="3">
         <v>800200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>829100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>826700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>853800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>548600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>422400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>245600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>230800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>261400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-201100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-172100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-295500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-72000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-69200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-76300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-201600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-95500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-216700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-70400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>1100</v>
       </c>
       <c r="N83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O83" s="3">
         <v>1000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>900</v>
       </c>
       <c r="P83" s="3">
         <v>900</v>
       </c>
       <c r="Q83" s="3">
+        <v>900</v>
+      </c>
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>218500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-25900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-537300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>76100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-279600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>35200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-83200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>22000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2200</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>22300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>55700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>320900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>160400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>253300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>130000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>193000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>37900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>120100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-263200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-54100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>114800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-64900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>88800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-106500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>105900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,123 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -821,8 +824,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,8 +892,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E12" s="3">
         <v>85300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>74600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>96800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>45600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>190100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>34500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>29600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E17" s="3">
         <v>107100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>98600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>84700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>114600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>48400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>39800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-91300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-81900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-76300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-63500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-69600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-59000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-48400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-39800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,138 +1445,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E20" s="3">
         <v>9600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>41500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-58500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-78200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-68500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-65900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-62100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-74600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-94200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-33100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-26700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-24000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-71100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1581,14 +1620,14 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>100</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1608,82 +1647,88 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-81700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-72000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-69200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-64700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-76300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-201600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-95500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-71200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,18 +1762,18 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
         <v>-31500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
         <v>-96300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1783,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-84100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-72000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-76300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-201600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-95500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-71200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-109600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-69200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-64700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-76300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-201600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-95500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-52600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-216700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-70400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-41500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>58500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-109600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-72000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-69200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-64700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-76300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-201600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-95500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-216700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-70400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-109600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-72000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-69200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-64700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-76300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-201600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-95500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-216700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-70400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,56 +2658,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E41" s="3">
         <v>156500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>265600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>296800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>560000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>612000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>212000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>97200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>162200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,56 +2724,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>845400</v>
+      </c>
+      <c r="E42" s="3">
         <v>938000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>900500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>925800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>405700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>321400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>403300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>406200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>137500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>64300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>102600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>127400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>54600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>73100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>88900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2792,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2718,17 +2810,17 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>300000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>50000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2744,8 +2836,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2768,8 +2860,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,56 +2928,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>14400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,56 +2996,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1092900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1108900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1179900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1239500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1273000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>941400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>678000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>514600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>308300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>259600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>94500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>114800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>129400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3064,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2980,15 +3084,15 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>24500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3004,8 +3108,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3028,56 +3132,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E48" s="3">
         <v>226700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>223500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>199800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>187000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>174700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>169700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>158800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3200,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3268,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,56 +3404,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,56 +3540,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1341700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1350300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1418400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1453400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1474500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1156600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>893100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>693200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>451700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>278300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>322600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>180500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,56 +3662,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>8000</v>
       </c>
       <c r="J57" s="3">
         <v>8000</v>
       </c>
       <c r="K57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,37 +3728,40 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I58" s="3">
         <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K58" s="3">
         <v>2100</v>
       </c>
       <c r="L58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M58" s="3">
         <v>1700</v>
@@ -3637,17 +3770,17 @@
         <v>1700</v>
       </c>
       <c r="O58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,56 +3796,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E59" s="3">
         <v>229600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>202800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>210200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>203700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>92000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>56200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,56 +3864,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E60" s="3">
         <v>238900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>212300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>218800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>213400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>102300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,56 +3932,59 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3858,53 +4000,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>383500</v>
+      </c>
+      <c r="E62" s="3">
         <v>395500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>404100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>403100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>431300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>197800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>211600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>164000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>98500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,56 +4272,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>608200</v>
+      </c>
+      <c r="E66" s="3">
         <v>635800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>618200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>624300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>647700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>302700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>344500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>270800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4377,17 +4544,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>302000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>298800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>439200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,56 +4638,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1057400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1019000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-909400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-837500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-768300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-703600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-675400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-599200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-397600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-302200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-267700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-233500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-203000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-175200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-156200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,56 +4910,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>733500</v>
+      </c>
+      <c r="E76" s="3">
         <v>714500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>829100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>826700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>853800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>548600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>422400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>245600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>230800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>261400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-201100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-172100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-295500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-109600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-72000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-69200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-64700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-76300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-201600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-95500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-216700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-70400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1100</v>
       </c>
       <c r="N83" s="3">
         <v>1100</v>
       </c>
       <c r="O83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P83" s="3">
         <v>1000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>900</v>
       </c>
       <c r="Q83" s="3">
         <v>900</v>
       </c>
       <c r="R83" s="3">
+        <v>900</v>
+      </c>
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-74500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>218500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-32500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-25900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-537300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>76100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-279600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>35200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>16600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>22000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2200</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6285,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>55700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>320900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>160400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>253300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>130000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>193000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>37900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>120100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6421,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-109100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-263200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-54100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>114800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-64900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>88800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-106500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>105900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E8" s="3">
         <v>20000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -827,8 +831,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E12" s="3">
         <v>86300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>74600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>96800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>190100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>34500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>29600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E17" s="3">
         <v>109000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>98600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>114600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>48400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>39800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-89000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-91300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-81900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-76300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-63500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-69600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-59000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-48400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-39800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,167 +1479,174 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>51700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>41500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-58500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-33400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-78200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-68500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-65900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-62100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-74600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-94200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-33200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-33100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-29400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-12900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-24000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-71100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1623,14 +1663,14 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>100</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1650,88 +1690,94 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-81700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-72000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-69200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-64700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-76300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-201600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-95500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-25200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-71200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,18 +1811,18 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
         <v>-31500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
         <v>-96300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-84100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-72000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-69200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-64700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-76300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-201600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-95500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-71200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-109600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-72000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-69200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-64700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-76300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-201600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-95500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-22300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-52600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-216700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-70400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-51700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-41500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>58500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-109600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-72000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-64700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-76300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-201600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-95500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-52600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-216700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-70400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-109600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-72000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-64700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-76300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-201600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-95500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-52600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-216700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-70400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,59 +2745,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E41" s="3">
         <v>232800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>156500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>265600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>296800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>560000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>612000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>212000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>162200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>126100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,59 +2814,62 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>809700</v>
+      </c>
+      <c r="E42" s="3">
         <v>845400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>938000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>900500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>925800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>405700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>321400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>403300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>406200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>137500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>64300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>127400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>54600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>73100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>88900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,13 +2885,16 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2813,17 +2906,17 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>300000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>50000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2932,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,59 +3027,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,59 +3098,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1092900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1108900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1179900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1239500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1273000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>941400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>678000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>514600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>308300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>259600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>94500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>114800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>129400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3169,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3087,15 +3192,15 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>24500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3111,8 +3216,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3135,59 +3240,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E48" s="3">
         <v>234100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>199800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>187000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>174700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>169700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,59 +3524,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
         <v>14700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,59 +3666,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1332400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1341700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1350300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1418400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1453400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1474500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1156600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>893100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>693200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>451700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>278300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>322600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>170600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>180500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,59 +3793,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8000</v>
       </c>
       <c r="K57" s="3">
         <v>8000</v>
       </c>
       <c r="L57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,40 +3862,43 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>2300</v>
       </c>
       <c r="I58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2200</v>
       </c>
       <c r="K58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L58" s="3">
         <v>2100</v>
       </c>
       <c r="M58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="N58" s="3">
         <v>1700</v>
@@ -3773,17 +3907,17 @@
         <v>1700</v>
       </c>
       <c r="P58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3799,59 +3933,62 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E59" s="3">
         <v>212700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>202800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>210200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>203700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>92000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>56200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,59 +4004,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>219900</v>
+      </c>
+      <c r="E60" s="3">
         <v>223600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>238900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>212300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>218800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>213400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>128700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>102100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>102300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,59 +4075,62 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4003,56 +4146,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>349900</v>
+      </c>
+      <c r="E62" s="3">
         <v>383500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>395500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>404100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>403100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>431300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>197800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>211600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>98500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,59 +4430,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>570800</v>
+      </c>
+      <c r="E66" s="3">
         <v>608200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>635800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>618200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>624300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>647700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>302700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>344500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>270800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4547,17 +4715,17 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>302000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>298800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>439200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,59 +4812,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1153800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1057400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1019000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-909400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-837500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-768300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-703600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-675400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-599200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-397600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-302200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-267700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-233500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-203000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-175200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-156200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,59 +5096,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>761500</v>
+      </c>
+      <c r="E76" s="3">
         <v>733500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>714500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>829100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>826700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>853800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>548600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>422400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>245600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>230800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>261400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-201100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-172100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-295500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-109600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-72000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-64700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-76300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-201600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-95500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-52600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-216700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-70400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1100</v>
       </c>
       <c r="O83" s="3">
         <v>1100</v>
       </c>
       <c r="P83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>900</v>
       </c>
       <c r="R83" s="3">
         <v>900</v>
       </c>
       <c r="S83" s="3">
+        <v>900</v>
+      </c>
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-69200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-74500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>218500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-32500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E94" s="3">
         <v>113400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-537300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-77500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>76100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-279600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>35200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>16600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-83200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>22000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2200</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E100" s="3">
         <v>32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>55700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>320900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>160400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>253300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>130000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>193000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>37900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>120100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6424,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E102" s="3">
         <v>76300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-263200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-54100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>114800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-64900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>88800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-106500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>105900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E8" s="3">
         <v>24200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -834,8 +838,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,8 +912,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E12" s="3">
         <v>99600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>86300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>74600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>96800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>190100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>29600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9900</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E17" s="3">
         <v>123100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>109000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>107100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>114600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>48400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>39800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12700</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-98900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-89000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-91300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-81900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-76300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-63500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-69600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-59000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-48400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-39800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,150 +1513,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>51700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>30600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-58500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-91800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-33400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-78200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-68500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-65900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-62100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-74600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-94200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-33200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-33100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-26700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-12900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-24000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-71100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,8 +1688,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1666,14 +1706,14 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>100</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1693,94 +1733,100 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-96500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-81700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-72000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-69200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-76300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-201600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-95500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-71200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1814,18 +1860,18 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
         <v>-31500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3">
         <v>-96300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-96500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-84100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-72000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-69200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-76300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-201600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-95500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-23800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-71200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-96500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-109600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-72000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-69200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-201600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-95500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-22300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-52600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-216700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-70400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-51700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-30600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>58500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-96500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-109600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-72000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-69200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-76300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-201600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-95500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-22300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-52600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-216700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-70400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-96500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-109600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-72000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-69200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-76300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-201600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-95500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-22300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-52600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-216700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-70400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,62 +2832,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E41" s="3">
         <v>249800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>232800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>156500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>265600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>296800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>560000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>612000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>212000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>162200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,62 +2904,65 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>847500</v>
+      </c>
+      <c r="E42" s="3">
         <v>809700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>845400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>938000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>900500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>925800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>405700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>321400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>403300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>406200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>137500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>102600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>127400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>54600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>73100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>88900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,16 +2978,19 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2909,17 +3002,17 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>300000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>50000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3028,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2959,8 +3052,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,62 +3126,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E45" s="3">
         <v>23600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,62 +3200,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1094800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1083000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1092900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1108900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1179900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1239500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1273000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>941400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>678000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>514600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>308300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>208700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>234800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>259600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>94500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>114800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>129400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,8 +3274,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3195,15 +3300,15 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>24500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3324,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3243,62 +3348,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>242300</v>
+      </c>
+      <c r="E48" s="3">
         <v>238000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>234100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>226700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>199800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>187000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>174700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>169700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>158800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>38000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,8 +3422,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,62 +3644,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,62 +3792,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1353900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1332400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1341700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1350300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1418400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1453400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1474500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1156600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>893100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>693200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>451700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>278300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>322600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>156100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>170600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>180500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3866,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,62 +3924,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>14100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8000</v>
       </c>
       <c r="L57" s="3">
         <v>8000</v>
       </c>
       <c r="M57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,43 +3996,46 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2300</v>
       </c>
       <c r="I58" s="3">
         <v>2300</v>
       </c>
       <c r="J58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K58" s="3">
         <v>2200</v>
       </c>
       <c r="L58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="M58" s="3">
         <v>2100</v>
       </c>
       <c r="N58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="O58" s="3">
         <v>1700</v>
@@ -3910,17 +4044,17 @@
         <v>1700</v>
       </c>
       <c r="Q58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,62 +4070,65 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E59" s="3">
         <v>204400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>212700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>202800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>210200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>203700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>91900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>118500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>92000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>56200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,62 +4144,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E60" s="3">
         <v>219900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>223600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>238900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>212300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>218800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>213400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>102100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,62 +4218,65 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4149,59 +4292,62 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>331800</v>
+      </c>
+      <c r="E62" s="3">
         <v>349900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>383500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>395500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>404100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>403100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>431300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>197800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>211600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,62 +4588,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>542200</v>
+      </c>
+      <c r="E66" s="3">
         <v>570800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>608200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>635800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>618200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>624300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>647700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>302700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>344500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>270800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4718,17 +4886,17 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>302000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>298800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>439200</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,62 +4986,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1236600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1153800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1057400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1019000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-909400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-837500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-768300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-703600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-675400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-599200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-397600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-302200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-267700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-233500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-203000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-175200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-156200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5060,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,62 +5282,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>811600</v>
+      </c>
+      <c r="E76" s="3">
         <v>761500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>733500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>714500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>829100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>826700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>853800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>548600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>422400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>245600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>230800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>261400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-201100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-172100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-295500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5356,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-96500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-109600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-72000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-69200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-76300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-201600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-95500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-22300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-52600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-216700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-70400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1100</v>
       </c>
       <c r="P83" s="3">
         <v>1100</v>
       </c>
       <c r="Q83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>900</v>
       </c>
       <c r="S83" s="3">
         <v>900</v>
       </c>
       <c r="T83" s="3">
+        <v>900</v>
+      </c>
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-109800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-69200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-74500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>218500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-25900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E94" s="3">
         <v>25500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>113400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-537300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-77500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>76100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-279600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-81400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>35200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>22900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-83200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>22000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2200</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E100" s="3">
         <v>98400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>55700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>320900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>160400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>253300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>130000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>193000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>37900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>120100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E102" s="3">
         <v>14100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>76300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-109100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-263200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-54100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>114800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-64900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>88800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-106500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>105900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEAM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>BEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E8" s="3">
         <v>20100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -841,8 +845,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,8 +922,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E12" s="3">
         <v>97600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>99600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>86300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>74600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>65400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>96800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>54600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>190100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>32500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>34500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>29600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9900</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E17" s="3">
         <v>122300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>109000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>107100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>84700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>114600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>48400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>39800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-102200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-98900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-89000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-91300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-81900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-76300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-69600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-59000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-40800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-48400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-39800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,156 +1547,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E20" s="3">
         <v>19400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>51700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-58500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-78000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-91800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-78200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-68500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-65900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-62100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-74600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-94200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-33200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-29400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-26700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-12900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-24000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-71100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1691,8 +1731,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1709,14 +1749,14 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>100</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1736,100 +1776,106 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-82800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-96500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-81700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-72000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-69200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-76300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-201600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-95500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-25200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-71200</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1863,18 +1909,18 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
         <v>-31500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3">
         <v>-96300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1884,8 +1930,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-82800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-96500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-84100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-72000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-69200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-76300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-201600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-95500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-23800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-71200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-82800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-96500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-109600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-72000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-69200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-76300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-201600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-95500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-22300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-52600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-216700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-70400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-51700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>58500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-82800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-96500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-109600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-72000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-69200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-76300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-201600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-95500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-22300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-52600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-16600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-216700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-70400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-82800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-96500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-109600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-72000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-69200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-76300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-201600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-95500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-22300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-52600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-16600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-216700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-70400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,65 +2919,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E41" s="3">
         <v>225500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>249800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>232800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>156500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>265600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>296800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>560000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>612000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>212000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>97200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>137900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>125300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>126100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,65 +2994,68 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>846400</v>
+      </c>
+      <c r="E42" s="3">
         <v>847500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>809700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>845400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>938000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>900500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>925800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>405700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>321400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>403300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>406200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>137500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>64300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>102600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>127400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>54600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>73100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>88900</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3071,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2992,8 +3085,8 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3005,17 +3098,17 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>300000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
         <v>50000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3124,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3055,8 +3148,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,65 +3225,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E45" s="3">
         <v>21800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,65 +3302,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1039500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1094800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1083000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1092900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1108900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1179900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1239500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1273000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>941400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>678000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>514600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>308300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>208700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>234800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>259600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>94500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>114800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>129400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,41 +3379,44 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>24500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3432,8 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3351,65 +3456,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>239700</v>
+      </c>
+      <c r="E48" s="3">
         <v>242300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>238000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>234100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>226700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>223500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>199800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>187000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>174700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>169700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>158800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>38000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,8 +3533,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,65 +3764,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
         <v>16800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +3841,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,65 +3918,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1290500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1353900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1332400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1341700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1350300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1418400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1453400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1474500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1156600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>893100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>693200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>451700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>278300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>322600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>156100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>170600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>180500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3995,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,65 +4055,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>8000</v>
       </c>
       <c r="M57" s="3">
         <v>8000</v>
       </c>
       <c r="N57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,46 +4130,49 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
       </c>
       <c r="K58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L58" s="3">
         <v>2200</v>
       </c>
       <c r="M58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="N58" s="3">
         <v>2100</v>
       </c>
       <c r="O58" s="3">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="P58" s="3">
         <v>1700</v>
@@ -4047,17 +4181,17 @@
         <v>1700</v>
       </c>
       <c r="R58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,65 +4207,68 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E59" s="3">
         <v>201700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>204400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>212700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>229600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>202800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>210200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>203700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>92000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>56200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,65 +4284,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E60" s="3">
         <v>209500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>219900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>223600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>238900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>212300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>218800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>213400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>102300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,65 +4361,68 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4295,62 +4438,65 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>290900</v>
+      </c>
+      <c r="E62" s="3">
         <v>331800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>349900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>383500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>395500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>404100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>403100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>431300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>211600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>164000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4515,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,65 +4746,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>511600</v>
+      </c>
+      <c r="E66" s="3">
         <v>542200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>570800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>608200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>635800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>618200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>624300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>647700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>302700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>344500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>270800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4823,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4889,17 +5057,17 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>302000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>298800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>439200</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,65 +5160,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1332700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1236600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1153800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1057400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1019000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-909400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-837500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-768300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-703600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-675400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-599200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-397600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-302200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-267700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-233500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-203000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-175200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-156200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5237,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,65 +5468,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>778900</v>
+      </c>
+      <c r="E76" s="3">
         <v>811600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>761500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>733500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>714500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>829100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>826700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>853800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>548600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>422400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>245600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>230800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>261400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-201100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-172100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-295500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5545,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-82800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-96500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-109600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-72000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-69200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-76300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-201600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-95500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-22300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-52600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-16600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-216700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-70400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E83" s="3">
         <v>4800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1100</v>
       </c>
       <c r="Q83" s="3">
         <v>1100</v>
       </c>
       <c r="R83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>900</v>
       </c>
       <c r="T83" s="3">
         <v>900</v>
       </c>
       <c r="U83" s="3">
+        <v>900</v>
+      </c>
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-84700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-109800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-69200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-74500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>218500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-25900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9400</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>25500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>113400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-537300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-77500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>76100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-279600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-81400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>35200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>22900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-83200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>22000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2200</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,82 +7023,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E100" s="3">
         <v>107500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>98400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>55700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>320900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>160400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>253300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>130000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>193000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>37900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>120100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,78 +7177,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>76300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-109100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-263200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-54100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>114800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-64900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>88800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-106500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>105900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
